--- a/music game.xlsx
+++ b/music game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\music-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09B094C-F2B3-421A-8ADA-E55245B2725D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A871B3-6B6D-4DDC-9D04-C8E625D7EB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="3105" windowWidth="30330" windowHeight="15345" xr2:uid="{C5B530B3-FE67-4848-BF9E-C4DD8452879E}"/>
   </bookViews>
@@ -2504,7 +2504,7 @@
   <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B176"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2540,2716 +2540,2721 @@
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>96</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>81</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>378</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>287</v>
       </c>
       <c r="F2" s="1">
-        <v>1979</v>
+        <v>1961</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>379</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>95</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>140</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>374</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>375</v>
       </c>
       <c r="F3" s="1">
-        <v>1954</v>
+        <v>1961</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>376</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>21</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1">
-        <v>1955</v>
+        <v>1958</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>142</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>109</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>564</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>565</v>
       </c>
       <c r="F5" s="1">
-        <v>1956</v>
+        <v>1969</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>566</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>68</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>111</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>271</v>
       </c>
       <c r="F6" s="1">
-        <v>1956</v>
+        <v>1974</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>273</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>64</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>106</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>254</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>255</v>
       </c>
       <c r="F7" s="1">
-        <v>1956</v>
+        <v>1973</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>38</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>134</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>110</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>531</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>532</v>
       </c>
       <c r="F9" s="1">
-        <v>1957</v>
+        <v>1968</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>34</v>
+        <v>533</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>75</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>166</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>298</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>299</v>
       </c>
       <c r="F10" s="1">
         <v>1958</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>140</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>159</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>556</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>557</v>
       </c>
       <c r="F11" s="1">
-        <v>1958</v>
+        <v>1969</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>42</v>
+        <v>558</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>49</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>135</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="F12" s="1">
-        <v>1958</v>
+        <v>1970</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F13" s="1">
-        <v>1958</v>
+        <v>1963</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>137</v>
+      </c>
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>61</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>544</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>545</v>
       </c>
       <c r="F14" s="1">
-        <v>1958</v>
+        <v>1969</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>54</v>
+        <v>546</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>80</v>
+      </c>
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>79</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>316</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>317</v>
       </c>
       <c r="F15" s="1">
         <v>1958</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>58</v>
+        <v>318</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>59</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>127</v>
+      </c>
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>52</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>504</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>61</v>
+        <v>426</v>
       </c>
       <c r="F16" s="1">
+        <v>1967</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>65</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1973</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>66</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1973</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>160</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1973</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>88</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1959</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>146</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1970</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1955</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1970</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>78</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F24" s="1">
         <v>1958</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="G24" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1959</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>53</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1959</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>154</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1959</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>158</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1960</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>129</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1960</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>144</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1961</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>130</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1962</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>103</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1962</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="B25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>12</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>96</v>
+        <v>250</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="F25" s="1">
-        <v>1963</v>
+        <v>1972</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>98</v>
+        <v>252</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>172</v>
+      </c>
+      <c r="B26">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>90</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>104</v>
+        <v>675</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>105</v>
+        <v>674</v>
       </c>
       <c r="F26" s="1">
-        <v>1965</v>
+        <v>1975</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>106</v>
+        <v>676</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>173</v>
+      </c>
+      <c r="B27">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>170</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>100</v>
+        <v>678</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>101</v>
+        <v>679</v>
       </c>
       <c r="F27" s="1">
-        <v>1963</v>
+        <v>1975</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>102</v>
+        <v>681</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>48</v>
+      </c>
+      <c r="B28">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>98</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="F28" s="1">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>126</v>
+      </c>
+      <c r="B29">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>75</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>112</v>
+        <v>542</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>113</v>
+        <v>501</v>
       </c>
       <c r="F29" s="1">
         <v>1966</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>114</v>
+        <v>502</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>99</v>
+      </c>
+      <c r="B30">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>63</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>116</v>
+        <v>389</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>117</v>
+        <v>390</v>
       </c>
       <c r="F30" s="1">
-        <v>1967</v>
+        <v>1962</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>118</v>
+        <v>391</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>149</v>
+      </c>
+      <c r="B31">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>151</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>120</v>
+        <v>589</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="F31" s="1">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>122</v>
+        <v>590</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>98</v>
+      </c>
+      <c r="B32">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>167</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>125</v>
+        <v>385</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>124</v>
+        <v>386</v>
       </c>
       <c r="F32" s="1">
-        <v>1968</v>
+        <v>1961</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>126</v>
+        <v>387</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>157</v>
+      </c>
+      <c r="B33">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>143</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>128</v>
+        <v>616</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>129</v>
+        <v>617</v>
       </c>
       <c r="F33" s="1">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>130</v>
+        <v>618</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>104</v>
+      </c>
+      <c r="B34">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>88</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>132</v>
+        <v>409</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>133</v>
+        <v>410</v>
       </c>
       <c r="F34" s="1">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>134</v>
+        <v>411</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>135</v>
+        <v>412</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>56</v>
+      </c>
+      <c r="B35">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>120</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>136</v>
+        <v>231</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>137</v>
+        <v>232</v>
       </c>
       <c r="F35" s="1">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>103</v>
+      </c>
+      <c r="B36">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>125</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>140</v>
+        <v>405</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>141</v>
+        <v>406</v>
       </c>
       <c r="F36" s="1">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>142</v>
+        <v>407</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>73</v>
+      </c>
+      <c r="B37">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>94</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>144</v>
+        <v>290</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>145</v>
+        <v>291</v>
       </c>
       <c r="F37" s="1">
-        <v>1968</v>
+        <v>1958</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>146</v>
+        <v>292</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>147</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>112</v>
+      </c>
+      <c r="B38">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>171</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>148</v>
+        <v>441</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>149</v>
+        <v>442</v>
       </c>
       <c r="F38" s="1">
-        <v>1969</v>
+        <v>1964</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>151</v>
+        <v>443</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>150</v>
+        <v>444</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>77</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="F39" s="1">
-        <v>1969</v>
+        <v>1957</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>155</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>72</v>
+      </c>
+      <c r="B40">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>86</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>156</v>
+        <v>286</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>157</v>
+        <v>287</v>
       </c>
       <c r="F40" s="1">
-        <v>1969</v>
+        <v>1958</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>158</v>
+        <v>289</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>53</v>
+      </c>
+      <c r="B41">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>49</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="F41" s="1">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>77</v>
+      </c>
+      <c r="B42">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>122</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>164</v>
+        <v>306</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>165</v>
+        <v>307</v>
       </c>
       <c r="F42" s="1">
-        <v>1970</v>
+        <v>1958</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>166</v>
+        <v>450</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>143</v>
+      </c>
+      <c r="B43">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>153</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>168</v>
+        <v>568</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>169</v>
+        <v>569</v>
       </c>
       <c r="F43" s="1">
         <v>1970</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>170</v>
+        <v>570</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>171</v>
+        <v>571</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>116</v>
+      </c>
+      <c r="B44">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>157</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>172</v>
+        <v>462</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>173</v>
+        <v>463</v>
       </c>
       <c r="F44" s="1">
-        <v>1970</v>
+        <v>1965</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>174</v>
+        <v>464</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>175</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>164</v>
+      </c>
+      <c r="B45">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>161</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>176</v>
+        <v>643</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>177</v>
+        <v>644</v>
       </c>
       <c r="F45" s="1">
-        <v>1970</v>
+        <v>1973</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>179</v>
+        <v>695</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>92</v>
+      </c>
+      <c r="B46">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>22</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>180</v>
+        <v>362</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>181</v>
+        <v>363</v>
       </c>
       <c r="F46" s="1">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>452</v>
+        <v>364</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>89</v>
+      </c>
+      <c r="B47">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>137</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>183</v>
+        <v>350</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>184</v>
+        <v>351</v>
       </c>
       <c r="F47" s="1">
-        <v>1970</v>
+        <v>1959</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>186</v>
+        <v>352</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>185</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>165</v>
+      </c>
+      <c r="B48">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="C48" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1974</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>136</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1968</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>40</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1969</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1970</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>27</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F49" s="1">
-        <v>1970</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>11</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1970</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="H50" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>152</v>
+      </c>
+      <c r="B51">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>85</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>199</v>
+        <v>598</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>200</v>
+        <v>599</v>
       </c>
       <c r="F51" s="1">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>201</v>
+        <v>600</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52">
+        <v>115</v>
+      </c>
+      <c r="B52">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>160</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>203</v>
+        <v>459</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>204</v>
+        <v>458</v>
       </c>
       <c r="F52" s="1">
-        <v>1971</v>
+        <v>1965</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>205</v>
+        <v>460</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>15</v>
+      </c>
+      <c r="B53">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>80</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="F53" s="1">
-        <v>1971</v>
+        <v>1958</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>210</v>
+        <v>62</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A54">
+        <v>17</v>
+      </c>
+      <c r="B54">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>40</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>211</v>
+        <v>68</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>212</v>
+        <v>69</v>
       </c>
       <c r="F54" s="1">
-        <v>1971</v>
+        <v>1959</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>214</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>128</v>
+      </c>
+      <c r="B55">
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>82</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>215</v>
+        <v>507</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>216</v>
+        <v>508</v>
       </c>
       <c r="F55" s="1">
-        <v>1971</v>
+        <v>1967</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>218</v>
+        <v>510</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
+        <v>87</v>
+      </c>
+      <c r="B56">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>112</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>219</v>
+        <v>343</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>222</v>
+        <v>344</v>
       </c>
       <c r="F56" s="1">
-        <v>1971</v>
+        <v>1959</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>221</v>
+        <v>345</v>
+      </c>
+      <c r="H56" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>62</v>
+      </c>
+      <c r="B57">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>34</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="F57" s="1">
         <v>1972</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>59</v>
+      </c>
+      <c r="B58">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>64</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F58" s="1">
         <v>1972</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>163</v>
+      </c>
+      <c r="B59">
         <v>58</v>
       </c>
-      <c r="B59">
-        <v>169</v>
-      </c>
       <c r="C59" s="1" t="s">
-        <v>227</v>
+        <v>640</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>228</v>
+        <v>463</v>
       </c>
       <c r="F59" s="1">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>229</v>
+        <v>641</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
+        <v>158</v>
+      </c>
+      <c r="B60">
         <v>59</v>
       </c>
-      <c r="B60">
-        <v>57</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>235</v>
+        <v>620</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>236</v>
+        <v>621</v>
       </c>
       <c r="F60" s="1">
         <v>1972</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>238</v>
+        <v>622</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
+        <v>174</v>
+      </c>
+      <c r="B61">
         <v>60</v>
       </c>
-      <c r="B61">
-        <v>123</v>
-      </c>
       <c r="C61" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="D61" s="3"/>
       <c r="E61" s="1" t="s">
-        <v>240</v>
+        <v>683</v>
       </c>
       <c r="F61" s="1">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>453</v>
+        <v>684</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A62">
+        <v>13</v>
+      </c>
+      <c r="B62">
         <v>61</v>
       </c>
-      <c r="B62">
-        <v>162</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>243</v>
+        <v>53</v>
       </c>
       <c r="F62" s="1">
-        <v>1972</v>
+        <v>1958</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>244</v>
+        <v>54</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A63">
+        <v>153</v>
+      </c>
+      <c r="B63">
         <v>62</v>
       </c>
-      <c r="B63">
-        <v>56</v>
-      </c>
       <c r="C63" s="1" t="s">
-        <v>246</v>
+        <v>602</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>247</v>
+        <v>603</v>
       </c>
       <c r="F63" s="1">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>248</v>
+        <v>604</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A64">
+        <v>29</v>
+      </c>
+      <c r="B64">
         <v>63</v>
       </c>
-      <c r="B64">
-        <v>24</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>250</v>
+        <v>116</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>251</v>
+        <v>117</v>
       </c>
       <c r="F64" s="1">
-        <v>1972</v>
+        <v>1967</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>252</v>
+        <v>118</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>253</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A65">
+        <v>57</v>
+      </c>
+      <c r="B65">
         <v>64</v>
       </c>
-      <c r="B65">
-        <v>6</v>
-      </c>
       <c r="C65" s="1" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="F65" s="1">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A66">
+        <v>159</v>
+      </c>
+      <c r="B66">
         <v>65</v>
       </c>
-      <c r="B66">
-        <v>16</v>
-      </c>
       <c r="C66" s="1" t="s">
-        <v>258</v>
+        <v>624</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>259</v>
+        <v>625</v>
       </c>
       <c r="F66" s="1">
         <v>1973</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>260</v>
+        <v>627</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67">
+        <v>114</v>
+      </c>
+      <c r="B67">
         <v>66</v>
       </c>
-      <c r="B67">
-        <v>17</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>262</v>
+        <v>454</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>263</v>
+        <v>455</v>
       </c>
       <c r="F67" s="1">
-        <v>1973</v>
+        <v>1965</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>265</v>
+        <v>456</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A68">
+        <v>107</v>
+      </c>
+      <c r="B68">
         <v>67</v>
       </c>
-      <c r="B68">
-        <v>69</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>266</v>
+        <v>421</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>267</v>
+        <v>422</v>
       </c>
       <c r="F68" s="1">
-        <v>1974</v>
+        <v>1963</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>269</v>
+        <v>424</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69">
+        <v>105</v>
+      </c>
+      <c r="B69">
         <v>68</v>
       </c>
-      <c r="B69">
-        <v>5</v>
-      </c>
       <c r="C69" s="1" t="s">
-        <v>270</v>
+        <v>413</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>271</v>
+        <v>414</v>
       </c>
       <c r="F69" s="1">
-        <v>1974</v>
+        <v>1963</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>273</v>
+        <v>415</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>272</v>
+        <v>416</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70">
         <v>69</v>
       </c>
-      <c r="B70">
-        <v>174</v>
-      </c>
       <c r="C70" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F70" s="1">
         <v>1974</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A71">
+        <v>150</v>
+      </c>
+      <c r="B71">
         <v>70</v>
       </c>
-      <c r="B71">
-        <v>141</v>
-      </c>
       <c r="C71" s="1" t="s">
-        <v>278</v>
+        <v>592</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>279</v>
+        <v>593</v>
       </c>
       <c r="F71" s="1">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>280</v>
+        <v>594</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
+        <v>154</v>
+      </c>
+      <c r="B72">
         <v>71</v>
       </c>
-      <c r="B72">
-        <v>127</v>
-      </c>
       <c r="C72" s="1" t="s">
-        <v>282</v>
+        <v>606</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>283</v>
+        <v>607</v>
       </c>
       <c r="F72" s="1">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>284</v>
+        <v>693</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A73">
+        <v>101</v>
+      </c>
+      <c r="B73">
         <v>72</v>
       </c>
-      <c r="B73">
-        <v>39</v>
-      </c>
       <c r="C73" s="1" t="s">
-        <v>286</v>
+        <v>397</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>287</v>
+        <v>398</v>
       </c>
       <c r="F73" s="1">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>288</v>
+        <v>399</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
+        <v>91</v>
+      </c>
+      <c r="B74">
         <v>73</v>
       </c>
-      <c r="B74">
-        <v>36</v>
-      </c>
       <c r="C74" s="1" t="s">
-        <v>290</v>
+        <v>358</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>291</v>
+        <v>359</v>
       </c>
       <c r="F74" s="1">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>292</v>
+        <v>360</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>293</v>
+        <v>361</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75">
+        <v>169</v>
+      </c>
+      <c r="B75">
         <v>74</v>
       </c>
-      <c r="B75">
-        <v>133</v>
-      </c>
       <c r="C75" s="1" t="s">
-        <v>294</v>
+        <v>662</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>295</v>
+        <v>663</v>
       </c>
       <c r="F75" s="1">
-        <v>1958</v>
+        <v>1974</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>296</v>
+        <v>664</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>297</v>
+        <v>665</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A76">
+        <v>28</v>
+      </c>
+      <c r="B76">
         <v>75</v>
       </c>
-      <c r="B76">
-        <v>9</v>
-      </c>
       <c r="C76" s="1" t="s">
-        <v>298</v>
+        <v>112</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>299</v>
+        <v>113</v>
       </c>
       <c r="F76" s="1">
-        <v>1958</v>
+        <v>1966</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>300</v>
+        <v>114</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
+        <v>82</v>
+      </c>
+      <c r="B77">
         <v>76</v>
       </c>
-      <c r="B77">
-        <v>173</v>
-      </c>
       <c r="C77" s="1" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="F77" s="1">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A78">
+        <v>38</v>
+      </c>
+      <c r="B78">
         <v>77</v>
       </c>
-      <c r="B78">
-        <v>41</v>
-      </c>
       <c r="C78" s="1" t="s">
-        <v>306</v>
+        <v>152</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>307</v>
+        <v>153</v>
       </c>
       <c r="F78" s="1">
-        <v>1958</v>
+        <v>1969</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>450</v>
+        <v>154</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A79">
+        <v>129</v>
+      </c>
+      <c r="B79">
         <v>78</v>
       </c>
-      <c r="B79">
-        <v>23</v>
-      </c>
       <c r="C79" s="1" t="s">
-        <v>308</v>
+        <v>511</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>309</v>
+        <v>512</v>
       </c>
       <c r="F79" s="1">
-        <v>1958</v>
+        <v>1967</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>310</v>
+        <v>513</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
+        <v>14</v>
+      </c>
+      <c r="B80">
         <v>79</v>
       </c>
-      <c r="B80">
-        <v>83</v>
-      </c>
       <c r="C80" s="1" t="s">
-        <v>312</v>
+        <v>56</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>313</v>
+        <v>57</v>
       </c>
       <c r="F80" s="1">
         <v>1958</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>315</v>
+        <v>58</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A81">
+        <v>52</v>
+      </c>
+      <c r="B81">
         <v>80</v>
       </c>
-      <c r="B81">
-        <v>14</v>
-      </c>
       <c r="C81" s="1" t="s">
-        <v>316</v>
+        <v>207</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>317</v>
+        <v>208</v>
       </c>
       <c r="F81" s="1">
-        <v>1958</v>
+        <v>1971</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>318</v>
+        <v>210</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>319</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
         <v>81</v>
       </c>
-      <c r="B82">
-        <v>108</v>
-      </c>
       <c r="C82" s="1" t="s">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>320</v>
+        <v>5</v>
       </c>
       <c r="F82" s="1">
-        <v>1959</v>
+        <v>1979</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>321</v>
+        <v>7</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A83">
+        <v>54</v>
+      </c>
+      <c r="B83">
         <v>82</v>
       </c>
-      <c r="B83">
-        <v>76</v>
-      </c>
       <c r="C83" s="1" t="s">
-        <v>323</v>
+        <v>215</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="F83" s="1">
-        <v>1959</v>
+        <v>1971</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>325</v>
+        <v>218</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>326</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A84">
+        <v>79</v>
+      </c>
+      <c r="B84">
         <v>83</v>
       </c>
-      <c r="B84">
-        <v>168</v>
-      </c>
       <c r="C84" s="1" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="F84" s="1">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A85">
+        <v>106</v>
+      </c>
+      <c r="B85">
         <v>84</v>
       </c>
-      <c r="B85">
-        <v>128</v>
-      </c>
       <c r="C85" s="1" t="s">
-        <v>331</v>
+        <v>417</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>332</v>
+        <v>418</v>
       </c>
       <c r="F85" s="1">
-        <v>1959</v>
+        <v>1963</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>333</v>
+        <v>419</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A86">
+        <v>50</v>
+      </c>
+      <c r="B86">
         <v>85</v>
       </c>
-      <c r="B86">
-        <v>155</v>
-      </c>
       <c r="C86" s="1" t="s">
-        <v>335</v>
+        <v>199</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>336</v>
+        <v>200</v>
       </c>
       <c r="F86" s="1">
-        <v>1959</v>
+        <v>1970</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>337</v>
+        <v>201</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A87">
+        <v>39</v>
+      </c>
+      <c r="B87">
         <v>86</v>
       </c>
-      <c r="B87">
-        <v>124</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>339</v>
+        <v>156</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>340</v>
+        <v>157</v>
       </c>
       <c r="F87" s="1">
-        <v>1959</v>
+        <v>1969</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>341</v>
+        <v>158</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>342</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
+        <v>110</v>
+      </c>
+      <c r="B88">
         <v>87</v>
       </c>
-      <c r="B88">
-        <v>55</v>
-      </c>
       <c r="C88" s="1" t="s">
-        <v>343</v>
+        <v>433</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>344</v>
+        <v>434</v>
       </c>
       <c r="F88" s="1">
-        <v>1959</v>
+        <v>1964</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H88" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A89">
+        <v>33</v>
+      </c>
+      <c r="B89">
         <v>88</v>
       </c>
-      <c r="B89">
-        <v>19</v>
-      </c>
       <c r="C89" s="1" t="s">
-        <v>346</v>
+        <v>132</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>347</v>
+        <v>133</v>
       </c>
       <c r="F89" s="1">
-        <v>1959</v>
+        <v>1968</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>348</v>
+        <v>134</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>349</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A90">
+        <v>144</v>
+      </c>
+      <c r="B90">
         <v>89</v>
       </c>
-      <c r="B90">
-        <v>46</v>
-      </c>
       <c r="C90" s="1" t="s">
-        <v>350</v>
+        <v>572</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>351</v>
+        <v>573</v>
       </c>
       <c r="F90" s="1">
-        <v>1959</v>
+        <v>1970</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>352</v>
+        <v>575</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A91">
+        <v>25</v>
+      </c>
+      <c r="B91">
         <v>90</v>
       </c>
-      <c r="B91">
-        <v>147</v>
-      </c>
       <c r="C91" s="1" t="s">
-        <v>354</v>
+        <v>104</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>355</v>
+        <v>105</v>
       </c>
       <c r="F91" s="1">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>356</v>
+        <v>106</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A92">
+        <v>122</v>
+      </c>
+      <c r="B92">
         <v>91</v>
       </c>
-      <c r="B92">
-        <v>73</v>
-      </c>
       <c r="C92" s="1" t="s">
-        <v>358</v>
+        <v>486</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>359</v>
+        <v>487</v>
       </c>
       <c r="F92" s="1">
-        <v>1960</v>
+        <v>1966</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>360</v>
+        <v>488</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>361</v>
+        <v>489</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A93">
+        <v>161</v>
+      </c>
+      <c r="B93">
         <v>92</v>
       </c>
-      <c r="B93">
-        <v>45</v>
-      </c>
       <c r="C93" s="1" t="s">
-        <v>362</v>
+        <v>632</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>363</v>
+        <v>633</v>
       </c>
       <c r="F93" s="1">
-        <v>1960</v>
+        <v>1973</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>364</v>
+        <v>634</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
+        <v>148</v>
+      </c>
+      <c r="B94">
         <v>93</v>
       </c>
-      <c r="B94">
-        <v>114</v>
-      </c>
       <c r="C94" s="1" t="s">
-        <v>366</v>
+        <v>585</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>367</v>
+        <v>586</v>
       </c>
       <c r="F94" s="1">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>368</v>
+        <v>587</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>369</v>
+        <v>588</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A95">
+        <v>36</v>
+      </c>
+      <c r="B95">
         <v>94</v>
       </c>
-      <c r="B95">
-        <v>100</v>
-      </c>
       <c r="C95" s="1" t="s">
-        <v>370</v>
+        <v>144</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>371</v>
+        <v>145</v>
       </c>
       <c r="F95" s="1">
-        <v>1961</v>
+        <v>1968</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>372</v>
+        <v>146</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>373</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A96">
+        <v>141</v>
+      </c>
+      <c r="B96">
         <v>95</v>
       </c>
-      <c r="B96">
-        <v>2</v>
-      </c>
       <c r="C96" s="1" t="s">
-        <v>374</v>
+        <v>560</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>375</v>
+        <v>561</v>
       </c>
       <c r="F96" s="1">
-        <v>1961</v>
+        <v>1969</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>376</v>
+        <v>563</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>377</v>
+        <v>562</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A97">
+        <v>118</v>
+      </c>
+      <c r="B97">
         <v>96</v>
       </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
       <c r="C97" s="1" t="s">
-        <v>378</v>
+        <v>470</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>287</v>
+        <v>471</v>
       </c>
       <c r="F97" s="1">
-        <v>1961</v>
+        <v>1965</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>379</v>
+        <v>472</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>380</v>
+        <v>473</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A98">
+        <v>175</v>
+      </c>
+      <c r="B98">
         <v>97</v>
       </c>
-      <c r="B98">
-        <v>142</v>
-      </c>
       <c r="C98" s="1" t="s">
-        <v>381</v>
+        <v>686</v>
+      </c>
+      <c r="D98" s="3" t="str">
+        <f>HYPERLINK(_xlfn.CONCAT("file:///./", C98, ".mp3"))</f>
+        <v>file:///./One of These Nights.mp3</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>382</v>
+        <v>687</v>
       </c>
       <c r="F98" s="1">
+        <v>1975</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>27</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1966</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>123</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1966</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>94</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F101" s="1">
         <v>1961</v>
       </c>
-      <c r="G98" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>31</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="F99" s="1">
-        <v>1961</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <v>29</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F100" s="1">
-        <v>1962</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>164</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F101" s="1">
-        <v>1962</v>
-      </c>
       <c r="G101" s="1" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
+        <v>132</v>
+      </c>
+      <c r="B102">
         <v>101</v>
       </c>
-      <c r="B102">
-        <v>72</v>
-      </c>
       <c r="C102" s="1" t="s">
-        <v>397</v>
+        <v>523</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>398</v>
+        <v>524</v>
       </c>
       <c r="F102" s="1">
-        <v>1962</v>
+        <v>1968</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A103">
+        <v>133</v>
+      </c>
+      <c r="B103">
         <v>102</v>
       </c>
-      <c r="B103">
-        <v>132</v>
-      </c>
       <c r="C103" s="1" t="s">
-        <v>401</v>
+        <v>527</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>402</v>
+        <v>528</v>
       </c>
       <c r="F103" s="1">
-        <v>1962</v>
+        <v>1968</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>403</v>
+        <v>529</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>404</v>
+        <v>530</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A104">
+        <v>23</v>
+      </c>
+      <c r="B104">
         <v>103</v>
       </c>
-      <c r="B104">
-        <v>35</v>
-      </c>
       <c r="C104" s="1" t="s">
-        <v>405</v>
+        <v>92</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>406</v>
+        <v>93</v>
       </c>
       <c r="F104" s="1">
         <v>1962</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>407</v>
+        <v>94</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>408</v>
+        <v>95</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
+        <v>113</v>
+      </c>
+      <c r="B105">
         <v>104</v>
       </c>
-      <c r="B105">
-        <v>33</v>
-      </c>
       <c r="C105" s="1" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="F105" s="1">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>411</v>
+        <v>447</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A106">
+        <v>125</v>
+      </c>
+      <c r="B106">
         <v>105</v>
       </c>
-      <c r="B106">
-        <v>68</v>
-      </c>
       <c r="C106" s="1" t="s">
-        <v>413</v>
+        <v>498</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>414</v>
+        <v>499</v>
       </c>
       <c r="F106" s="1">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>415</v>
+        <v>500</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>416</v>
+        <v>543</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A107">
+        <v>6</v>
+      </c>
+      <c r="B107">
         <v>106</v>
       </c>
-      <c r="B107">
-        <v>84</v>
-      </c>
       <c r="C107" s="1" t="s">
-        <v>417</v>
+        <v>24</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>418</v>
+        <v>25</v>
       </c>
       <c r="F107" s="1">
-        <v>1963</v>
+        <v>1956</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>419</v>
+        <v>26</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
+        <v>155</v>
+      </c>
+      <c r="B108">
         <v>107</v>
       </c>
-      <c r="B108">
-        <v>67</v>
-      </c>
       <c r="C108" s="1" t="s">
-        <v>421</v>
+        <v>608</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>422</v>
+        <v>609</v>
       </c>
       <c r="F108" s="1">
-        <v>1963</v>
+        <v>1971</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>424</v>
+        <v>610</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>423</v>
+        <v>611</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A109">
+        <v>81</v>
+      </c>
+      <c r="B109">
         <v>108</v>
       </c>
-      <c r="B109">
-        <v>117</v>
-      </c>
       <c r="C109" s="1" t="s">
-        <v>425</v>
+        <v>164</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>426</v>
+        <v>320</v>
       </c>
       <c r="F109" s="1">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>427</v>
+        <v>321</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A110">
+        <v>4</v>
+      </c>
+      <c r="B110">
         <v>109</v>
       </c>
-      <c r="B110">
-        <v>172</v>
-      </c>
       <c r="C110" s="1" t="s">
-        <v>429</v>
+        <v>16</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>430</v>
+        <v>17</v>
       </c>
       <c r="F110" s="1">
-        <v>1964</v>
+        <v>1956</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>431</v>
+        <v>19</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A111">
+        <v>8</v>
+      </c>
+      <c r="B111">
         <v>110</v>
       </c>
-      <c r="B111">
-        <v>87</v>
-      </c>
       <c r="C111" s="1" t="s">
-        <v>433</v>
+        <v>32</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>434</v>
+        <v>33</v>
       </c>
       <c r="F111" s="1">
-        <v>1964</v>
+        <v>1957</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>435</v>
+        <v>34</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A112">
+        <v>5</v>
+      </c>
+      <c r="B112">
         <v>111</v>
       </c>
-      <c r="B112">
-        <v>116</v>
-      </c>
       <c r="C112" s="1" t="s">
-        <v>437</v>
+        <v>20</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>438</v>
+        <v>21</v>
       </c>
       <c r="F112" s="1">
-        <v>1964</v>
+        <v>1956</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>439</v>
+        <v>22</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>440</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A113">
+        <v>55</v>
+      </c>
+      <c r="B113">
         <v>112</v>
       </c>
-      <c r="B113">
-        <v>37</v>
-      </c>
       <c r="C113" s="1" t="s">
-        <v>441</v>
+        <v>219</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>442</v>
+        <v>222</v>
       </c>
       <c r="F113" s="1">
-        <v>1964</v>
+        <v>1971</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>443</v>
+        <v>220</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A114">
+        <v>170</v>
+      </c>
+      <c r="B114">
         <v>113</v>
       </c>
-      <c r="B114">
-        <v>104</v>
-      </c>
       <c r="C114" s="1" t="s">
-        <v>445</v>
+        <v>666</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>446</v>
+        <v>667</v>
       </c>
       <c r="F114" s="1">
-        <v>1964</v>
+        <v>1975</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>447</v>
+        <v>668</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>448</v>
+        <v>669</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A115">
+        <v>93</v>
+      </c>
+      <c r="B115">
         <v>114</v>
       </c>
-      <c r="B115">
-        <v>66</v>
-      </c>
       <c r="C115" s="1" t="s">
-        <v>454</v>
+        <v>366</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>455</v>
+        <v>367</v>
       </c>
       <c r="F115" s="1">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>456</v>
+        <v>368</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>457</v>
+        <v>369</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A116">
+        <v>130</v>
+      </c>
+      <c r="B116">
         <v>115</v>
       </c>
-      <c r="B116">
-        <v>51</v>
-      </c>
       <c r="C116" s="1" t="s">
-        <v>459</v>
+        <v>515</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
       <c r="F116" s="1">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>460</v>
+        <v>517</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>461</v>
+        <v>518</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A117">
+        <v>111</v>
+      </c>
+      <c r="B117">
         <v>116</v>
       </c>
-      <c r="B117">
-        <v>43</v>
-      </c>
       <c r="C117" s="1" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="F117" s="1">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A118">
+        <v>108</v>
+      </c>
+      <c r="B118">
         <v>117</v>
       </c>
-      <c r="B118">
-        <v>156</v>
-      </c>
       <c r="C118" s="1" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>467</v>
+        <v>426</v>
       </c>
       <c r="F118" s="1">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>468</v>
+        <v>428</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A119">
+        <v>147</v>
+      </c>
+      <c r="B119">
         <v>118</v>
       </c>
-      <c r="B119">
-        <v>96</v>
-      </c>
       <c r="C119" s="1" t="s">
-        <v>470</v>
+        <v>582</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>471</v>
+        <v>583</v>
       </c>
       <c r="F119" s="1">
-        <v>1965</v>
+        <v>1970</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>473</v>
+        <v>584</v>
+      </c>
+      <c r="H119" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5277,1300 +5282,1295 @@
     </row>
     <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A121">
+        <v>34</v>
+      </c>
+      <c r="B121">
         <v>120</v>
       </c>
-      <c r="B121">
-        <v>149</v>
-      </c>
       <c r="C121" s="1" t="s">
-        <v>478</v>
+        <v>136</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>479</v>
+        <v>137</v>
       </c>
       <c r="F121" s="1">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>480</v>
+        <v>138</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
+        <v>124</v>
+      </c>
+      <c r="B122">
         <v>121</v>
       </c>
-      <c r="B122">
-        <v>131</v>
-      </c>
       <c r="C122" s="1" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="F122" s="1">
         <v>1966</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
+        <v>41</v>
+      </c>
+      <c r="B123">
         <v>122</v>
       </c>
-      <c r="B123">
-        <v>91</v>
-      </c>
       <c r="C123" s="1" t="s">
-        <v>486</v>
+        <v>164</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>487</v>
+        <v>165</v>
       </c>
       <c r="F123" s="1">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>488</v>
+        <v>166</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A124">
+        <v>60</v>
+      </c>
+      <c r="B124">
         <v>123</v>
       </c>
-      <c r="B124">
-        <v>99</v>
-      </c>
       <c r="C124" s="1" t="s">
-        <v>490</v>
+        <v>239</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>491</v>
+        <v>240</v>
       </c>
       <c r="F124" s="1">
-        <v>1966</v>
+        <v>1972</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A125">
+        <v>86</v>
+      </c>
+      <c r="B125">
         <v>124</v>
       </c>
-      <c r="B125">
-        <v>121</v>
-      </c>
       <c r="C125" s="1" t="s">
-        <v>494</v>
+        <v>339</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>495</v>
+        <v>340</v>
       </c>
       <c r="F125" s="1">
-        <v>1966</v>
+        <v>1959</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>496</v>
+        <v>341</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A126">
+        <v>35</v>
+      </c>
+      <c r="B126">
         <v>125</v>
       </c>
-      <c r="B126">
-        <v>105</v>
-      </c>
       <c r="C126" s="1" t="s">
-        <v>498</v>
+        <v>140</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>499</v>
+        <v>141</v>
       </c>
       <c r="F126" s="1">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>500</v>
+        <v>142</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A127">
+        <v>166</v>
+      </c>
+      <c r="B127">
         <v>126</v>
       </c>
-      <c r="B127">
-        <v>28</v>
-      </c>
       <c r="C127" s="1" t="s">
-        <v>542</v>
+        <v>650</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>501</v>
+        <v>651</v>
       </c>
       <c r="F127" s="1">
-        <v>1966</v>
+        <v>1974</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>502</v>
+        <v>653</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>503</v>
+        <v>652</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A128">
+        <v>71</v>
+      </c>
+      <c r="B128">
         <v>127</v>
       </c>
-      <c r="B128">
-        <v>15</v>
-      </c>
       <c r="C128" s="1" t="s">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>426</v>
+        <v>283</v>
       </c>
       <c r="F128" s="1">
-        <v>1967</v>
+        <v>1975</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>505</v>
+        <v>284</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>506</v>
+        <v>285</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A129">
+        <v>84</v>
+      </c>
+      <c r="B129">
         <v>128</v>
       </c>
-      <c r="B129">
-        <v>54</v>
-      </c>
       <c r="C129" s="1" t="s">
-        <v>507</v>
+        <v>331</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>508</v>
+        <v>332</v>
       </c>
       <c r="F129" s="1">
-        <v>1967</v>
+        <v>1959</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>510</v>
+        <v>333</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>509</v>
+        <v>334</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A130">
+        <v>20</v>
+      </c>
+      <c r="B130">
         <v>129</v>
       </c>
-      <c r="B130">
-        <v>78</v>
-      </c>
       <c r="C130" s="1" t="s">
-        <v>511</v>
+        <v>81</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>512</v>
+        <v>80</v>
       </c>
       <c r="F130" s="1">
-        <v>1967</v>
+        <v>1960</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>513</v>
+        <v>82</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>514</v>
+        <v>83</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A131">
+        <v>22</v>
+      </c>
+      <c r="B131">
         <v>130</v>
       </c>
-      <c r="B131">
-        <v>115</v>
-      </c>
       <c r="C131" s="1" t="s">
-        <v>515</v>
+        <v>88</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>516</v>
+        <v>89</v>
       </c>
       <c r="F131" s="1">
-        <v>1967</v>
+        <v>1962</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>517</v>
+        <v>90</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A132">
+        <v>121</v>
+      </c>
+      <c r="B132">
         <v>131</v>
       </c>
-      <c r="B132">
-        <v>152</v>
-      </c>
       <c r="C132" s="1" t="s">
-        <v>519</v>
+        <v>482</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>520</v>
+        <v>483</v>
       </c>
       <c r="F132" s="1">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>521</v>
+        <v>484</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A133">
+        <v>102</v>
+      </c>
+      <c r="B133">
         <v>132</v>
       </c>
-      <c r="B133">
-        <v>101</v>
-      </c>
       <c r="C133" s="1" t="s">
-        <v>523</v>
+        <v>401</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>524</v>
+        <v>402</v>
       </c>
       <c r="F133" s="1">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>525</v>
+        <v>403</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>526</v>
+        <v>404</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A134">
+        <v>74</v>
+      </c>
+      <c r="B134">
         <v>133</v>
       </c>
-      <c r="B134">
-        <v>102</v>
-      </c>
       <c r="C134" s="1" t="s">
-        <v>527</v>
+        <v>294</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>528</v>
+        <v>295</v>
       </c>
       <c r="F134" s="1">
-        <v>1968</v>
+        <v>1958</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>529</v>
+        <v>296</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135">
         <v>134</v>
       </c>
-      <c r="B135">
-        <v>8</v>
-      </c>
       <c r="C135" s="1" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="F135" s="1">
         <v>1968</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A136">
+        <v>11</v>
+      </c>
+      <c r="B136">
         <v>135</v>
       </c>
-      <c r="B136">
-        <v>134</v>
-      </c>
       <c r="C136" s="1" t="s">
-        <v>535</v>
+        <v>44</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>536</v>
+        <v>45</v>
       </c>
       <c r="F136" s="1">
-        <v>1968</v>
+        <v>1958</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>537</v>
+        <v>47</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A137">
+        <v>167</v>
+      </c>
+      <c r="B137">
         <v>136</v>
       </c>
-      <c r="B137">
-        <v>48</v>
-      </c>
       <c r="C137" s="1" t="s">
-        <v>538</v>
+        <v>654</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>539</v>
+        <v>655</v>
       </c>
       <c r="F137" s="1">
-        <v>1968</v>
+        <v>1974</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>540</v>
+        <v>657</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A138">
+        <v>46</v>
+      </c>
+      <c r="B138">
         <v>137</v>
       </c>
-      <c r="B138">
-        <v>13</v>
-      </c>
       <c r="C138" s="1" t="s">
-        <v>544</v>
+        <v>183</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>545</v>
+        <v>184</v>
       </c>
       <c r="F138" s="1">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>546</v>
+        <v>186</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A139">
+        <v>171</v>
+      </c>
+      <c r="B139">
         <v>138</v>
       </c>
-      <c r="B139">
-        <v>165</v>
-      </c>
       <c r="C139" s="1" t="s">
-        <v>548</v>
+        <v>670</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>549</v>
+        <v>671</v>
       </c>
       <c r="F139" s="1">
-        <v>1969</v>
+        <v>1975</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>551</v>
+        <v>673</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>550</v>
+        <v>672</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A140">
+        <v>145</v>
+      </c>
+      <c r="B140">
         <v>139</v>
       </c>
-      <c r="B140">
-        <v>148</v>
-      </c>
       <c r="C140" s="1" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="F140" s="1">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>554</v>
+        <v>597</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A141">
+        <v>2</v>
+      </c>
+      <c r="B141">
         <v>140</v>
       </c>
-      <c r="B141">
+      <c r="C141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="1">
+        <v>1954</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="F141" s="1">
-        <v>1969</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>558</v>
-      </c>
       <c r="H141" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A142">
+        <v>70</v>
+      </c>
+      <c r="B142">
         <v>141</v>
       </c>
-      <c r="B142">
-        <v>95</v>
-      </c>
       <c r="C142" s="1" t="s">
-        <v>560</v>
+        <v>278</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>561</v>
+        <v>279</v>
       </c>
       <c r="F142" s="1">
-        <v>1969</v>
+        <v>1975</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>563</v>
+        <v>280</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>562</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A143">
+        <v>97</v>
+      </c>
+      <c r="B143">
         <v>142</v>
       </c>
-      <c r="B143">
-        <v>4</v>
-      </c>
       <c r="C143" s="1" t="s">
-        <v>564</v>
+        <v>381</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>565</v>
+        <v>382</v>
       </c>
       <c r="F143" s="1">
-        <v>1969</v>
+        <v>1961</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>566</v>
+        <v>383</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>567</v>
+        <v>384</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A144">
+        <v>32</v>
+      </c>
+      <c r="B144">
         <v>143</v>
       </c>
-      <c r="B144">
-        <v>42</v>
-      </c>
       <c r="C144" s="1" t="s">
-        <v>568</v>
+        <v>128</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>569</v>
+        <v>129</v>
       </c>
       <c r="F144" s="1">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>570</v>
+        <v>130</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
+        <v>21</v>
+      </c>
+      <c r="B145">
         <v>144</v>
       </c>
-      <c r="B145">
-        <v>89</v>
-      </c>
       <c r="C145" s="1" t="s">
-        <v>572</v>
+        <v>84</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>573</v>
+        <v>85</v>
       </c>
       <c r="F145" s="1">
-        <v>1970</v>
+        <v>1961</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>575</v>
+        <v>86</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
+        <v>162</v>
+      </c>
+      <c r="B146">
         <v>145</v>
       </c>
-      <c r="B146">
+      <c r="C146" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F146" s="1">
+        <v>1973</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>156</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F147" s="1">
+        <v>1972</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>90</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F148" s="1">
+        <v>1960</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>139</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="F146" s="1">
-        <v>1970</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>146</v>
-      </c>
-      <c r="B147">
-        <v>20</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="F147" s="1">
-        <v>1970</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="B148">
-        <v>118</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="F148" s="1">
-        <v>1970</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="H148" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="B149">
         <v>148</v>
       </c>
-      <c r="B149">
-        <v>93</v>
-      </c>
       <c r="C149" s="1" t="s">
-        <v>585</v>
+        <v>552</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
       <c r="F149" s="1">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>587</v>
+        <v>554</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>588</v>
+        <v>555</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A150">
+        <v>120</v>
+      </c>
+      <c r="B150">
         <v>149</v>
       </c>
-      <c r="B150">
-        <v>30</v>
-      </c>
       <c r="C150" s="1" t="s">
-        <v>589</v>
+        <v>478</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>190</v>
+        <v>479</v>
       </c>
       <c r="F150" s="1">
-        <v>1970</v>
+        <v>1966</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>590</v>
+        <v>480</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>591</v>
+        <v>481</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151">
         <v>150</v>
       </c>
-      <c r="B151">
-        <v>70</v>
-      </c>
       <c r="C151" s="1" t="s">
-        <v>592</v>
+        <v>690</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="F151" s="1">
         <v>1971</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>594</v>
+        <v>691</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A152">
+        <v>30</v>
+      </c>
+      <c r="B152">
         <v>151</v>
       </c>
-      <c r="B152">
-        <v>150</v>
-      </c>
       <c r="C152" s="1" t="s">
-        <v>690</v>
+        <v>120</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>596</v>
+        <v>121</v>
       </c>
       <c r="F152" s="1">
-        <v>1971</v>
+        <v>1967</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>691</v>
+        <v>122</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>692</v>
+        <v>123</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
+        <v>131</v>
+      </c>
+      <c r="B153">
         <v>152</v>
       </c>
-      <c r="B153">
-        <v>50</v>
-      </c>
       <c r="C153" s="1" t="s">
-        <v>598</v>
+        <v>519</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>599</v>
+        <v>520</v>
       </c>
       <c r="F153" s="1">
-        <v>1971</v>
+        <v>1967</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>600</v>
+        <v>521</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A154">
+        <v>42</v>
+      </c>
+      <c r="B154">
         <v>153</v>
       </c>
-      <c r="B154">
-        <v>62</v>
-      </c>
       <c r="C154" s="1" t="s">
-        <v>602</v>
+        <v>168</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>603</v>
+        <v>169</v>
       </c>
       <c r="F154" s="1">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>604</v>
+        <v>170</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A155">
+        <v>18</v>
+      </c>
+      <c r="B155">
         <v>154</v>
       </c>
-      <c r="B155">
-        <v>71</v>
-      </c>
       <c r="C155" s="1" t="s">
-        <v>606</v>
+        <v>72</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>607</v>
+        <v>73</v>
       </c>
       <c r="F155" s="1">
-        <v>1971</v>
+        <v>1959</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>693</v>
+        <v>75</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A156">
+        <v>85</v>
+      </c>
+      <c r="B156">
         <v>155</v>
       </c>
-      <c r="B156">
-        <v>107</v>
-      </c>
       <c r="C156" s="1" t="s">
-        <v>608</v>
+        <v>335</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>609</v>
+        <v>336</v>
       </c>
       <c r="F156" s="1">
-        <v>1971</v>
+        <v>1959</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>610</v>
+        <v>337</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>611</v>
+        <v>338</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A157">
+        <v>117</v>
+      </c>
+      <c r="B157">
         <v>156</v>
       </c>
-      <c r="B157">
-        <v>146</v>
-      </c>
       <c r="C157" s="1" t="s">
-        <v>612</v>
+        <v>466</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>613</v>
+        <v>467</v>
       </c>
       <c r="F157" s="1">
-        <v>1972</v>
+        <v>1965</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>614</v>
+        <v>469</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A158">
+        <v>43</v>
+      </c>
+      <c r="B158">
         <v>157</v>
       </c>
-      <c r="B158">
-        <v>32</v>
-      </c>
       <c r="C158" s="1" t="s">
-        <v>616</v>
+        <v>172</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>617</v>
+        <v>173</v>
       </c>
       <c r="F158" s="1">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>618</v>
+        <v>174</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A159">
+        <v>19</v>
+      </c>
+      <c r="B159">
         <v>158</v>
       </c>
-      <c r="B159">
-        <v>59</v>
-      </c>
       <c r="C159" s="1" t="s">
-        <v>620</v>
+        <v>76</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>621</v>
+        <v>77</v>
       </c>
       <c r="F159" s="1">
-        <v>1972</v>
+        <v>1960</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>622</v>
+        <v>78</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>623</v>
+        <v>79</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A160">
+        <v>10</v>
+      </c>
+      <c r="B160">
         <v>159</v>
       </c>
-      <c r="B160">
-        <v>65</v>
-      </c>
       <c r="C160" s="1" t="s">
-        <v>624</v>
+        <v>40</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>625</v>
+        <v>41</v>
       </c>
       <c r="F160" s="1">
-        <v>1973</v>
+        <v>1958</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>627</v>
+        <v>42</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A161">
+        <v>51</v>
+      </c>
+      <c r="B161">
         <v>160</v>
       </c>
-      <c r="B161">
-        <v>18</v>
-      </c>
       <c r="C161" s="1" t="s">
-        <v>628</v>
+        <v>203</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>629</v>
+        <v>204</v>
       </c>
       <c r="F161" s="1">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>630</v>
+        <v>205</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>631</v>
+        <v>206</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A162">
+        <v>44</v>
+      </c>
+      <c r="B162">
         <v>161</v>
       </c>
-      <c r="B162">
-        <v>92</v>
-      </c>
       <c r="C162" s="1" t="s">
-        <v>632</v>
+        <v>176</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>633</v>
+        <v>177</v>
       </c>
       <c r="F162" s="1">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>634</v>
+        <v>179</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A163">
+        <v>61</v>
+      </c>
+      <c r="B163">
         <v>162</v>
       </c>
-      <c r="B163">
-        <v>145</v>
-      </c>
       <c r="C163" s="1" t="s">
-        <v>636</v>
+        <v>242</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>637</v>
+        <v>243</v>
       </c>
       <c r="F163" s="1">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>638</v>
+        <v>244</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A164">
+        <v>47</v>
+      </c>
+      <c r="B164">
         <v>163</v>
       </c>
-      <c r="B164">
-        <v>58</v>
-      </c>
       <c r="C164" s="1" t="s">
-        <v>640</v>
+        <v>188</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>463</v>
+        <v>187</v>
       </c>
       <c r="F164" s="1">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>641</v>
+        <v>189</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A165">
+        <v>100</v>
+      </c>
+      <c r="B165">
         <v>164</v>
       </c>
-      <c r="B165">
-        <v>44</v>
-      </c>
       <c r="C165" s="1" t="s">
-        <v>643</v>
+        <v>393</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>644</v>
+        <v>394</v>
       </c>
       <c r="F165" s="1">
-        <v>1973</v>
+        <v>1962</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>695</v>
+        <v>395</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>645</v>
+        <v>396</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A166">
+        <v>138</v>
+      </c>
+      <c r="B166">
         <v>165</v>
       </c>
-      <c r="B166">
-        <v>47</v>
-      </c>
       <c r="C166" s="1" t="s">
-        <v>646</v>
+        <v>548</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>647</v>
+        <v>549</v>
       </c>
       <c r="F166" s="1">
-        <v>1974</v>
+        <v>1969</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>648</v>
+        <v>551</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A167">
+        <v>9</v>
+      </c>
+      <c r="B167">
         <v>166</v>
       </c>
-      <c r="B167">
+      <c r="C167" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F167" s="1">
+        <v>1958</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>31</v>
+      </c>
+      <c r="B168">
+        <v>167</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F168" s="1">
+        <v>1968</v>
+      </c>
+      <c r="G168" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="F167" s="1">
-        <v>1974</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>167</v>
-      </c>
-      <c r="B168">
-        <v>136</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="F168" s="1">
-        <v>1974</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>657</v>
-      </c>
       <c r="H168" s="1" t="s">
-        <v>656</v>
+        <v>127</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A169">
+        <v>83</v>
+      </c>
+      <c r="B169">
         <v>168</v>
       </c>
-      <c r="B169">
-        <v>175</v>
-      </c>
       <c r="C169" s="1" t="s">
-        <v>658</v>
+        <v>327</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>659</v>
+        <v>328</v>
       </c>
       <c r="F169" s="1">
-        <v>1974</v>
+        <v>1959</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>660</v>
+        <v>329</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A170">
+        <v>58</v>
+      </c>
+      <c r="B170">
         <v>169</v>
       </c>
-      <c r="B170">
-        <v>74</v>
-      </c>
       <c r="C170" s="1" t="s">
-        <v>662</v>
+        <v>227</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>663</v>
+        <v>228</v>
       </c>
       <c r="F170" s="1">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>664</v>
+        <v>229</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A171">
+        <v>26</v>
+      </c>
+      <c r="B171">
         <v>170</v>
       </c>
-      <c r="B171">
-        <v>113</v>
-      </c>
       <c r="C171" s="1" t="s">
-        <v>666</v>
+        <v>100</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>667</v>
+        <v>101</v>
       </c>
       <c r="F171" s="1">
-        <v>1975</v>
+        <v>1963</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>668</v>
+        <v>102</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A172">
+        <v>37</v>
+      </c>
+      <c r="B172">
         <v>171</v>
       </c>
-      <c r="B172">
-        <v>138</v>
-      </c>
       <c r="C172" s="1" t="s">
-        <v>670</v>
+        <v>148</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>671</v>
+        <v>149</v>
       </c>
       <c r="F172" s="1">
-        <v>1975</v>
+        <v>1969</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>673</v>
+        <v>151</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>672</v>
+        <v>150</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A173">
+        <v>109</v>
+      </c>
+      <c r="B173">
         <v>172</v>
       </c>
-      <c r="B173">
-        <v>25</v>
-      </c>
       <c r="C173" s="1" t="s">
-        <v>675</v>
+        <v>429</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>674</v>
+        <v>430</v>
       </c>
       <c r="F173" s="1">
-        <v>1975</v>
+        <v>1964</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>676</v>
+        <v>431</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>677</v>
+        <v>432</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A174">
+        <v>76</v>
+      </c>
+      <c r="B174">
         <v>173</v>
       </c>
-      <c r="B174">
-        <v>26</v>
-      </c>
       <c r="C174" s="1" t="s">
-        <v>678</v>
+        <v>302</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>679</v>
+        <v>303</v>
       </c>
       <c r="F174" s="1">
-        <v>1975</v>
+        <v>1958</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>681</v>
+        <v>304</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A175">
+        <v>69</v>
+      </c>
+      <c r="B175">
         <v>174</v>
       </c>
-      <c r="B175">
-        <v>60</v>
-      </c>
       <c r="C175" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="D175" s="3"/>
+        <v>274</v>
+      </c>
       <c r="E175" s="1" t="s">
-        <v>683</v>
+        <v>275</v>
       </c>
       <c r="F175" s="1">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>684</v>
+        <v>277</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>685</v>
+        <v>276</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A176">
+        <v>168</v>
+      </c>
+      <c r="B176">
         <v>175</v>
       </c>
-      <c r="B176">
-        <v>97</v>
-      </c>
       <c r="C176" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="D176" s="3" t="str">
-        <f>HYPERLINK(_xlfn.CONCAT("file:///./", C176, ".mp3"))</f>
-        <v>file:///./One of These Nights.mp3</v>
+        <v>658</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>687</v>
+        <v>659</v>
       </c>
       <c r="F176" s="1">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>688</v>
+        <v>660</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H141">
-    <sortCondition ref="A2:A141"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H176">
+    <sortCondition ref="B2:B176"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/music game.xlsx
+++ b/music game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\music-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A871B3-6B6D-4DDC-9D04-C8E625D7EB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542421D2-B2EE-4244-8AD9-B92E7FAC8610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="3105" windowWidth="30330" windowHeight="15345" xr2:uid="{C5B530B3-FE67-4848-BF9E-C4DD8452879E}"/>
   </bookViews>
@@ -2503,8 +2503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE68FEC2-664E-45B9-A86F-9A73447BA932}">
   <dimension ref="A1:H176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
